--- a/Base_de_Dados/Jogos_do_Dia_Betfair/Jogos_do_Dia_Betfair_Back_Lay_2024-01-11.xlsx
+++ b/Base_de_Dados/Jogos_do_Dia_Betfair/Jogos_do_Dia_Betfair_Back_Lay_2024-01-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DP12"/>
+  <dimension ref="A1:DP13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1062,61 +1062,61 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="G2" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="H2" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
         <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="M2" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="N2" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="O2" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="P2" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="R2" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="S2" t="n">
-        <v>3.5</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
         <v>1.1</v>
       </c>
       <c r="U2" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="V2" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="W2" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="X2" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -1125,64 +1125,64 @@
         <v>1.03</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="AB2" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AG2" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AI2" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AL2" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AM2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AN2" t="n">
         <v>1.1</v>
       </c>
       <c r="AO2" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AP2" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AQ2" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AR2" t="n">
         <v>1.03</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AU2" t="n">
         <v>36</v>
@@ -1191,10 +1191,10 @@
         <v>1.01</v>
       </c>
       <c r="AW2" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AX2" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AY2" t="n">
         <v>1000</v>
@@ -1203,10 +1203,10 @@
         <v>1.01</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="BB2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="BC2" t="n">
         <v>1000</v>
@@ -1215,46 +1215,46 @@
         <v>1.01</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="BF2" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="BG2" t="n">
         <v>1000</v>
       </c>
       <c r="BH2" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="BJ2" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="BK2" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="BL2" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="BM2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="BN2" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="BO2" t="n">
         <v>14.5</v>
       </c>
       <c r="BP2" t="n">
-        <v>3.45</v>
+        <v>4.4</v>
       </c>
       <c r="BQ2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BR2" t="n">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="BS2" t="n">
         <v>1000</v>
@@ -1263,10 +1263,10 @@
         <v>4.3</v>
       </c>
       <c r="BU2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="BV2" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="BW2" t="n">
         <v>8.800000000000001</v>
@@ -1275,37 +1275,37 @@
         <v>4.8</v>
       </c>
       <c r="BY2" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>46</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="CC2" t="n">
         <v>16</v>
       </c>
-      <c r="BZ2" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>44</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>16.5</v>
-      </c>
       <c r="CD2" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="CE2" t="n">
         <v>12.5</v>
       </c>
       <c r="CF2" t="n">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="CG2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CH2" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="CI2" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="CJ2" t="n">
         <v>2.9</v>
@@ -1314,34 +1314,34 @@
         <v>34</v>
       </c>
       <c r="CL2" t="n">
-        <v>3.25</v>
+        <v>5.3</v>
       </c>
       <c r="CM2" t="n">
         <v>27</v>
       </c>
       <c r="CN2" t="n">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="CO2" t="n">
         <v>44</v>
       </c>
       <c r="CP2" t="n">
-        <v>3.85</v>
+        <v>5.1</v>
       </c>
       <c r="CQ2" t="n">
         <v>1000</v>
       </c>
       <c r="CR2" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="CS2" t="n">
         <v>21</v>
       </c>
       <c r="CT2" t="n">
-        <v>3.65</v>
+        <v>4.7</v>
       </c>
       <c r="CU2" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="CV2" t="n">
         <v>2.9</v>
@@ -1466,7 +1466,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="G3" t="n">
         <v>1.56</v>
@@ -1475,13 +1475,13 @@
         <v>6.4</v>
       </c>
       <c r="I3" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.01</v>
+        <v>3.9</v>
       </c>
       <c r="K3" t="n">
-        <v>950</v>
+        <v>8.6</v>
       </c>
       <c r="L3" t="n">
         <v>3.3</v>
@@ -1646,31 +1646,31 @@
         <v>1000</v>
       </c>
       <c r="BN3" t="n">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="BO3" t="n">
         <v>1000</v>
       </c>
       <c r="BP3" t="n">
-        <v>2.48</v>
+        <v>1.46</v>
       </c>
       <c r="BQ3" t="n">
         <v>1000</v>
       </c>
       <c r="BR3" t="n">
-        <v>2.88</v>
+        <v>1.46</v>
       </c>
       <c r="BS3" t="n">
         <v>1000</v>
       </c>
       <c r="BT3" t="n">
-        <v>1.47</v>
+        <v>2.36</v>
       </c>
       <c r="BU3" t="n">
         <v>12.5</v>
       </c>
       <c r="BV3" t="n">
-        <v>2.84</v>
+        <v>1.33</v>
       </c>
       <c r="BW3" t="n">
         <v>14.5</v>
@@ -1688,67 +1688,67 @@
         <v>1000</v>
       </c>
       <c r="CB3" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="CC3" t="n">
         <v>11.5</v>
       </c>
       <c r="CD3" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="CE3" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="CF3" t="n">
-        <v>4.2</v>
+        <v>1.46</v>
       </c>
       <c r="CG3" t="n">
         <v>1000</v>
       </c>
       <c r="CH3" t="n">
-        <v>10</v>
+        <v>1.46</v>
       </c>
       <c r="CI3" t="n">
         <v>1000</v>
       </c>
       <c r="CJ3" t="n">
-        <v>4.4</v>
+        <v>1.46</v>
       </c>
       <c r="CK3" t="n">
         <v>15</v>
       </c>
       <c r="CL3" t="n">
-        <v>1.3</v>
+        <v>7</v>
       </c>
       <c r="CM3" t="n">
         <v>16.5</v>
       </c>
       <c r="CN3" t="n">
-        <v>1.3</v>
+        <v>12</v>
       </c>
       <c r="CO3" t="n">
         <v>1000</v>
       </c>
       <c r="CP3" t="n">
-        <v>1.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="CQ3" t="n">
         <v>1000</v>
       </c>
       <c r="CR3" t="n">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="CS3" t="n">
         <v>6.4</v>
       </c>
       <c r="CT3" t="n">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="CU3" t="n">
         <v>1000</v>
       </c>
       <c r="CV3" t="n">
-        <v>3.65</v>
+        <v>5.1</v>
       </c>
       <c r="CW3" t="n">
         <v>1000</v>
@@ -1870,19 +1870,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="G4" t="n">
         <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>1.6</v>
+        <v>1.04</v>
       </c>
       <c r="I4" t="n">
         <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="K4" t="n">
         <v>950</v>
@@ -2050,91 +2050,91 @@
         <v>1000</v>
       </c>
       <c r="BN4" t="n">
-        <v>2.7</v>
+        <v>2.34</v>
       </c>
       <c r="BO4" t="n">
         <v>1000</v>
       </c>
       <c r="BP4" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="BQ4" t="n">
         <v>1000</v>
       </c>
       <c r="BR4" t="n">
-        <v>3.05</v>
+        <v>4</v>
       </c>
       <c r="BS4" t="n">
         <v>1000</v>
       </c>
       <c r="BT4" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="BU4" t="n">
         <v>1000</v>
       </c>
       <c r="BV4" t="n">
-        <v>2.76</v>
+        <v>3.35</v>
       </c>
       <c r="BW4" t="n">
         <v>1000</v>
       </c>
       <c r="BX4" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="BY4" t="n">
         <v>1000</v>
       </c>
       <c r="BZ4" t="n">
-        <v>4.3</v>
+        <v>6.4</v>
       </c>
       <c r="CA4" t="n">
         <v>1000</v>
       </c>
       <c r="CB4" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="CC4" t="n">
         <v>1000</v>
       </c>
       <c r="CD4" t="n">
-        <v>3.45</v>
+        <v>4.8</v>
       </c>
       <c r="CE4" t="n">
         <v>1000</v>
       </c>
       <c r="CF4" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="CG4" t="n">
         <v>1000</v>
       </c>
       <c r="CH4" t="n">
-        <v>6.2</v>
+        <v>10</v>
       </c>
       <c r="CI4" t="n">
         <v>1000</v>
       </c>
       <c r="CJ4" t="n">
-        <v>4.8</v>
+        <v>2.92</v>
       </c>
       <c r="CK4" t="n">
         <v>1000</v>
       </c>
       <c r="CL4" t="n">
-        <v>8.800000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="CM4" t="n">
         <v>1000</v>
       </c>
       <c r="CN4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CO4" t="n">
         <v>1000</v>
       </c>
       <c r="CP4" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="CQ4" t="n">
         <v>1000</v>
@@ -2292,7 +2292,7 @@
         <v>4.7</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
         <v>4.1</v>
@@ -2433,7 +2433,7 @@
         <v>2.72</v>
       </c>
       <c r="BG5" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="BH5" t="n">
         <v>1.61</v>
@@ -2448,25 +2448,25 @@
         <v>2.64</v>
       </c>
       <c r="BL5" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="BM5" t="n">
         <v>19.5</v>
       </c>
       <c r="BN5" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="BO5" t="n">
         <v>18</v>
       </c>
       <c r="BP5" t="n">
-        <v>1.74</v>
+        <v>2.66</v>
       </c>
       <c r="BQ5" t="n">
         <v>1000</v>
       </c>
       <c r="BR5" t="n">
-        <v>1.74</v>
+        <v>4.7</v>
       </c>
       <c r="BS5" t="n">
         <v>1000</v>
@@ -2478,7 +2478,7 @@
         <v>14</v>
       </c>
       <c r="BV5" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="BW5" t="n">
         <v>10.5</v>
@@ -2496,7 +2496,7 @@
         <v>1000</v>
       </c>
       <c r="CB5" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="CC5" t="n">
         <v>17.5</v>
@@ -2520,31 +2520,31 @@
         <v>1000</v>
       </c>
       <c r="CJ5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>7</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CN5" t="n">
         <v>1.74</v>
       </c>
-      <c r="CK5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="CL5" t="n">
+      <c r="CO5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CP5" t="n">
         <v>1.74</v>
       </c>
-      <c r="CM5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="CN5" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="CO5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="CP5" t="n">
-        <v>13</v>
-      </c>
       <c r="CQ5" t="n">
         <v>1000</v>
       </c>
       <c r="CR5" t="n">
-        <v>1.58</v>
+        <v>1.86</v>
       </c>
       <c r="CS5" t="n">
         <v>17</v>
@@ -2556,7 +2556,7 @@
         <v>1000</v>
       </c>
       <c r="CV5" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="CW5" t="n">
         <v>1000</v>
@@ -2864,7 +2864,7 @@
         <v>10</v>
       </c>
       <c r="BP6" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="BQ6" t="n">
         <v>9.4</v>
@@ -2900,7 +2900,7 @@
         <v>15</v>
       </c>
       <c r="CB6" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="CC6" t="n">
         <v>70</v>
@@ -2909,7 +2909,7 @@
         <v>24</v>
       </c>
       <c r="CE6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="CF6" t="n">
         <v>20</v>
@@ -2924,16 +2924,16 @@
         <v>34</v>
       </c>
       <c r="CJ6" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="CK6" t="n">
         <v>300</v>
       </c>
       <c r="CL6" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="CM6" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="CN6" t="n">
         <v>13</v>
@@ -2942,19 +2942,19 @@
         <v>90</v>
       </c>
       <c r="CP6" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="CQ6" t="n">
         <v>130</v>
       </c>
       <c r="CR6" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="CS6" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="CT6" t="n">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
       <c r="CU6" t="n">
         <v>6.8</v>
@@ -3085,25 +3085,25 @@
         <v>2.84</v>
       </c>
       <c r="G7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H7" t="n">
         <v>2.74</v>
       </c>
       <c r="I7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K7" t="n">
         <v>3.25</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.3</v>
       </c>
       <c r="L7" t="n">
         <v>2.22</v>
       </c>
       <c r="M7" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="N7" t="n">
         <v>1.6</v>
@@ -3199,7 +3199,7 @@
         <v>1.01</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="AT7" t="n">
         <v>1.54</v>
@@ -3211,10 +3211,10 @@
         <v>1.01</v>
       </c>
       <c r="AW7" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="AX7" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="AY7" t="n">
         <v>1000</v>
@@ -3223,10 +3223,10 @@
         <v>1.01</v>
       </c>
       <c r="BA7" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="BB7" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="BC7" t="n">
         <v>1000</v>
@@ -3256,115 +3256,115 @@
         <v>1000</v>
       </c>
       <c r="BL7" t="n">
-        <v>1.31</v>
+        <v>1.03</v>
       </c>
       <c r="BM7" t="n">
         <v>8.4</v>
       </c>
       <c r="BN7" t="n">
-        <v>1.55</v>
+        <v>1.13</v>
       </c>
       <c r="BO7" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="BP7" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="BQ7" t="n">
         <v>1000</v>
       </c>
       <c r="BR7" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="BS7" t="n">
         <v>1000</v>
       </c>
       <c r="BT7" t="n">
-        <v>2.56</v>
+        <v>1.13</v>
       </c>
       <c r="BU7" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BV7" t="n">
-        <v>2.86</v>
+        <v>1.15</v>
       </c>
       <c r="BW7" t="n">
         <v>7.6</v>
       </c>
       <c r="BX7" t="n">
-        <v>1.55</v>
+        <v>1.13</v>
       </c>
       <c r="BY7" t="n">
         <v>1000</v>
       </c>
       <c r="BZ7" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="CA7" t="n">
         <v>1000</v>
       </c>
       <c r="CB7" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="CC7" t="n">
         <v>1000</v>
       </c>
       <c r="CD7" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="CE7" t="n">
         <v>1000</v>
       </c>
       <c r="CF7" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="CG7" t="n">
         <v>1000</v>
       </c>
       <c r="CH7" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="CI7" t="n">
         <v>1000</v>
       </c>
       <c r="CJ7" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="CK7" t="n">
         <v>1000</v>
       </c>
       <c r="CL7" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="CM7" t="n">
         <v>1000</v>
       </c>
       <c r="CN7" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="CO7" t="n">
         <v>1000</v>
       </c>
       <c r="CP7" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="CQ7" t="n">
         <v>1000</v>
       </c>
       <c r="CR7" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="CS7" t="n">
         <v>1000</v>
       </c>
       <c r="CT7" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="CU7" t="n">
         <v>1000</v>
       </c>
       <c r="CV7" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="CW7" t="n">
         <v>1000</v>
@@ -3510,13 +3510,13 @@
         <v>3.8</v>
       </c>
       <c r="N8" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="O8" t="n">
         <v>1.55</v>
       </c>
       <c r="P8" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="Q8" t="n">
         <v>1.62</v>
@@ -3648,16 +3648,16 @@
         <v>1000</v>
       </c>
       <c r="BH8" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="BI8" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK8" t="n">
         <v>2.14</v>
-      </c>
-      <c r="BJ8" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="BK8" t="n">
-        <v>2.26</v>
       </c>
       <c r="BL8" t="n">
         <v>12.5</v>
@@ -3675,10 +3675,10 @@
         <v>38</v>
       </c>
       <c r="BQ8" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="BR8" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="BS8" t="n">
         <v>170</v>
@@ -3702,13 +3702,13 @@
         <v>23</v>
       </c>
       <c r="BZ8" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="CA8" t="n">
         <v>90</v>
       </c>
       <c r="CB8" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="CC8" t="n">
         <v>10.5</v>
@@ -3717,7 +3717,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="CE8" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="CF8" t="n">
         <v>19</v>
@@ -3726,7 +3726,7 @@
         <v>22</v>
       </c>
       <c r="CH8" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="CI8" t="n">
         <v>90</v>
@@ -3744,7 +3744,7 @@
         <v>18</v>
       </c>
       <c r="CN8" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="CO8" t="n">
         <v>38</v>
@@ -3756,19 +3756,19 @@
         <v>130</v>
       </c>
       <c r="CR8" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="CS8" t="n">
         <v>10.5</v>
       </c>
       <c r="CT8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="CU8" t="n">
         <v>110</v>
       </c>
       <c r="CV8" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="CW8" t="n">
         <v>1000</v>
@@ -3905,7 +3905,7 @@
         <v>3.5</v>
       </c>
       <c r="K9" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L9" t="n">
         <v>2.78</v>
@@ -4067,7 +4067,7 @@
         <v>9.6</v>
       </c>
       <c r="BM9" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="BN9" t="n">
         <v>13</v>
@@ -4076,13 +4076,13 @@
         <v>980</v>
       </c>
       <c r="BP9" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="BQ9" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="BR9" t="n">
-        <v>5.5</v>
+        <v>7.4</v>
       </c>
       <c r="BS9" t="n">
         <v>130</v>
@@ -4100,16 +4100,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="BX9" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="BY9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BZ9" t="n">
-        <v>5.8</v>
+        <v>7.2</v>
       </c>
       <c r="CA9" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="CB9" t="n">
         <v>9.4</v>
@@ -4124,55 +4124,55 @@
         <v>10.5</v>
       </c>
       <c r="CF9" t="n">
-        <v>4.9</v>
+        <v>6</v>
       </c>
       <c r="CG9" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="CH9" t="n">
-        <v>5.8</v>
+        <v>7.2</v>
       </c>
       <c r="CI9" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="CJ9" t="n">
-        <v>4.6</v>
+        <v>18.5</v>
       </c>
       <c r="CK9" t="n">
         <v>22</v>
       </c>
       <c r="CL9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="CM9" t="n">
         <v>23</v>
       </c>
       <c r="CN9" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="CO9" t="n">
         <v>980</v>
       </c>
       <c r="CP9" t="n">
-        <v>5.6</v>
+        <v>7.4</v>
       </c>
       <c r="CQ9" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="CR9" t="n">
         <v>7</v>
       </c>
       <c r="CS9" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="CT9" t="n">
-        <v>5.5</v>
+        <v>7.2</v>
       </c>
       <c r="CU9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="CV9" t="n">
-        <v>5.7</v>
+        <v>7.2</v>
       </c>
       <c r="CW9" t="n">
         <v>1000</v>
@@ -4363,10 +4363,10 @@
         <v>4.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AE10" t="n">
         <v>1.28</v>
@@ -4435,7 +4435,7 @@
         <v>1.01</v>
       </c>
       <c r="BA10" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="BB10" t="n">
         <v>7.4</v>
@@ -4456,7 +4456,7 @@
         <v>1000</v>
       </c>
       <c r="BH10" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="BI10" t="n">
         <v>2</v>
@@ -4465,7 +4465,7 @@
         <v>2</v>
       </c>
       <c r="BK10" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="BL10" t="n">
         <v>21</v>
@@ -4480,13 +4480,13 @@
         <v>36</v>
       </c>
       <c r="BP10" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="BQ10" t="n">
         <v>75</v>
       </c>
       <c r="BR10" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="BS10" t="n">
         <v>280</v>
@@ -4510,10 +4510,10 @@
         <v>32</v>
       </c>
       <c r="BZ10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CA10" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="CB10" t="n">
         <v>8.6</v>
@@ -4531,10 +4531,10 @@
         <v>21</v>
       </c>
       <c r="CG10" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="CH10" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="CI10" t="n">
         <v>110</v>
@@ -4558,7 +4558,7 @@
         <v>32</v>
       </c>
       <c r="CP10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CQ10" t="n">
         <v>130</v>
@@ -4570,13 +4570,13 @@
         <v>5.5</v>
       </c>
       <c r="CT10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CU10" t="n">
         <v>140</v>
       </c>
       <c r="CV10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="CW10" t="n">
         <v>1000</v>
@@ -4815,7 +4815,7 @@
         <v>1.06</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT11" t="n">
         <v>12</v>
@@ -4830,7 +4830,7 @@
         <v>1.04</v>
       </c>
       <c r="AX11" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AY11" t="n">
         <v>1000</v>
@@ -4842,7 +4842,7 @@
         <v>1.02</v>
       </c>
       <c r="BB11" t="n">
-        <v>10.5</v>
+        <v>50</v>
       </c>
       <c r="BC11" t="n">
         <v>1000</v>
@@ -4854,7 +4854,7 @@
         <v>1.01</v>
       </c>
       <c r="BF11" t="n">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="BG11" t="n">
         <v>1000</v>
@@ -4863,10 +4863,10 @@
         <v>2.12</v>
       </c>
       <c r="BI11" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="BJ11" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="BK11" t="n">
         <v>1.9</v>
@@ -4896,7 +4896,7 @@
         <v>400</v>
       </c>
       <c r="BT11" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="BU11" t="n">
         <v>8.4</v>
@@ -5105,7 +5105,7 @@
         <v>1.3</v>
       </c>
       <c r="G12" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="H12" t="n">
         <v>11.5</v>
@@ -5114,10 +5114,10 @@
         <v>16</v>
       </c>
       <c r="J12" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="K12" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L12" t="n">
         <v>3</v>
@@ -5276,7 +5276,7 @@
         <v>1.81</v>
       </c>
       <c r="BL12" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="BM12" t="n">
         <v>19</v>
@@ -5285,16 +5285,16 @@
         <v>6</v>
       </c>
       <c r="BO12" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BP12" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="BQ12" t="n">
         <v>1000</v>
       </c>
       <c r="BR12" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="BS12" t="n">
         <v>1000</v>
@@ -5312,13 +5312,13 @@
         <v>14.5</v>
       </c>
       <c r="BX12" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="BY12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BZ12" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="CA12" t="n">
         <v>1000</v>
@@ -5330,19 +5330,19 @@
         <v>7.8</v>
       </c>
       <c r="CD12" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="CE12" t="n">
         <v>12</v>
       </c>
       <c r="CF12" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="CG12" t="n">
         <v>42</v>
       </c>
       <c r="CH12" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="CI12" t="n">
         <v>1000</v>
@@ -5360,19 +5360,19 @@
         <v>17.5</v>
       </c>
       <c r="CN12" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="CO12" t="n">
         <v>55</v>
       </c>
       <c r="CP12" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="CQ12" t="n">
         <v>1000</v>
       </c>
       <c r="CR12" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="CS12" t="n">
         <v>6.6</v>
@@ -5384,7 +5384,7 @@
         <v>1000</v>
       </c>
       <c r="CV12" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="CW12" t="n">
         <v>1000</v>
@@ -5476,6 +5476,410 @@
       <c r="DP12" t="inlineStr">
         <is>
           <t>1.223024703</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Mexican Ascenso MX</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2024-01-11</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>22:05:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CD Tepatitlan De Morelos</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Dorados</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+      <c r="I13" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>6</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>6</v>
+      </c>
+      <c r="W13" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="X13" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>110</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>24</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>28</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>3</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>11</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>26</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>11</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>22</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>10</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>32</v>
+      </c>
+      <c r="CP13" t="n">
+        <v>17</v>
+      </c>
+      <c r="CQ13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="CT13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CU13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CV13" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="CW13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="CX13" t="inlineStr">
+        <is>
+          <t>32911508</t>
+        </is>
+      </c>
+      <c r="CY13" t="n">
+        <v>15976071</v>
+      </c>
+      <c r="CZ13" t="n">
+        <v>6119455</v>
+      </c>
+      <c r="DA13" t="n">
+        <v>58805</v>
+      </c>
+      <c r="DB13" t="inlineStr">
+        <is>
+          <t>1.223144637</t>
+        </is>
+      </c>
+      <c r="DC13" t="inlineStr">
+        <is>
+          <t>1.223144640</t>
+        </is>
+      </c>
+      <c r="DD13" t="inlineStr">
+        <is>
+          <t>1.223144642</t>
+        </is>
+      </c>
+      <c r="DE13" t="inlineStr">
+        <is>
+          <t>1.223144635</t>
+        </is>
+      </c>
+      <c r="DF13" t="inlineStr">
+        <is>
+          <t>1.223144641</t>
+        </is>
+      </c>
+      <c r="DG13" t="inlineStr">
+        <is>
+          <t>1.223144685</t>
+        </is>
+      </c>
+      <c r="DH13" t="inlineStr">
+        <is>
+          <t>1.223144682</t>
+        </is>
+      </c>
+      <c r="DI13" t="inlineStr">
+        <is>
+          <t>1.223144686</t>
+        </is>
+      </c>
+      <c r="DJ13" t="inlineStr">
+        <is>
+          <t>1.223144683</t>
+        </is>
+      </c>
+      <c r="DK13" t="inlineStr">
+        <is>
+          <t>1.223144645</t>
+        </is>
+      </c>
+      <c r="DL13" t="inlineStr">
+        <is>
+          <t>1.223144643</t>
+        </is>
+      </c>
+      <c r="DM13" t="inlineStr">
+        <is>
+          <t>1.223144636</t>
+        </is>
+      </c>
+      <c r="DN13" t="inlineStr">
+        <is>
+          <t>1.223144634</t>
+        </is>
+      </c>
+      <c r="DO13" t="inlineStr">
+        <is>
+          <t>1.223144721</t>
+        </is>
+      </c>
+      <c r="DP13" t="inlineStr">
+        <is>
+          <t>1.223144646</t>
         </is>
       </c>
     </row>
